--- a/biology/Zoologie/Echinolampadidae/Echinolampadidae.xlsx
+++ b/biology/Zoologie/Echinolampadidae/Echinolampadidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Echinolampadidae sont une famille d'oursins, de l'ordre des Echinolampadoida[1] (ou des Cassiduloida selon les classifications[2]).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Echinolampadidae sont une famille d'oursins, de l'ordre des Echinolampadoida (ou des Cassiduloida selon les classifications).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des oursins irréguliers de taille moyenne à grande, avec un test (coquille) généralement bien gonflé. Les pétales ambulacraires sont longs et ouverts, généralement avec des zones porifères inégales. Le périprocte est marginal à inframarginal, transversal ou longitudinal. Le système apical est tétrabasal ou monobasal. Les bourrelets et phyllodes sont larges bien développés. On note la présence de pores buccaux[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des oursins irréguliers de taille moyenne à grande, avec un test (coquille) généralement bien gonflé. Les pétales ambulacraires sont longs et ouverts, généralement avec des zones porifères inégales. Le périprocte est marginal à inframarginal, transversal ou longitudinal. Le système apical est tétrabasal ou monobasal. Les bourrelets et phyllodes sont larges bien développés. On note la présence de pores buccaux.
 			Conolampas sigsbei (Golfe du Mexique).
 			Fossile de Echinolampas barciensis (Miocène de Syrie, MNHN).
 </t>
@@ -544,7 +558,9 @@
           <t>Extension stratigraphique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces oursins existent depuis le Crétacé (Cénomanien), et comportent plusieurs genres fossiles.
 </t>
@@ -575,13 +591,84 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La famille des Echinolampadidae a été décrite par le zoologiste britannique John Edward Gray en 1851.
-Synonyme
-Clypeolampadidae (Kier, 1962)
-Taxinomie
-Selon World Register of Marine Species                               (25 octobre 2013)[1] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Echinolampadidae a été décrite par le zoologiste britannique John Edward Gray en 1851.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Echinolampadidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Echinolampadidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Clypeolampadidae (Kier, 1962)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Echinolampadidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Echinolampadidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (25 octobre 2013) : 
 genre Conolampas (A. Agassiz, 1883)
 genre Echinolampas Gray, 1825
 genre Hypsoclypus (Pomel, 1869)
